--- a/analysis/pre_gemini_data/Participant170/task_med.xlsx
+++ b/analysis/pre_gemini_data/Participant170/task_med.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,162 +422,158 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>conditional body2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>conditional statement</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>conditional statement2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>conditioonal body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>exception handling</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>loop body</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>loop statement</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>mathod2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>method calls</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>method declaration</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>method3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>method4</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>method5</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>parameters</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
@@ -643,48 +627,48 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="n">
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>9</v>
       </c>
       <c r="I3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
         <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -697,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -709,9 +693,7 @@
       <c r="AA3" t="n">
         <v>1</v>
       </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
+      <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
@@ -720,7 +702,7 @@
       </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -733,48 +715,48 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J4" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>89</v>
       </c>
       <c r="M4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
         <v>6</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
@@ -787,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="X4" t="n">
         <v>1</v>
@@ -799,9 +781,7 @@
       <c r="AA4" t="n">
         <v>2</v>
       </c>
-      <c r="AB4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="n">
         <v>2</v>
       </c>
@@ -810,7 +790,7 @@
       </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -823,48 +803,48 @@
         <v>767.4299999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>4905.24</v>
+        <v>4721.73</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>40400.25</v>
+        <v>37263.18</v>
       </c>
       <c r="F5" t="n">
         <v>3937.35</v>
       </c>
       <c r="G5" t="n">
-        <v>6223.23</v>
+        <v>4838.48</v>
       </c>
       <c r="H5" t="n">
         <v>3826.81</v>
       </c>
       <c r="I5" t="n">
-        <v>23747.72</v>
+        <v>22463.1</v>
       </c>
       <c r="J5" t="n">
-        <v>23747.72</v>
+        <v>22463.1</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>23192.94</v>
       </c>
       <c r="M5" t="n">
-        <v>4771.73</v>
+        <v>4588.23</v>
       </c>
       <c r="N5" t="n">
-        <v>30138</v>
+        <v>28219.38</v>
       </c>
       <c r="O5" t="n">
-        <v>1568.26</v>
+        <v>750.6799999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>1418.14</v>
+        <v>900.96</v>
       </c>
       <c r="Q5" t="n">
-        <v>3370.36</v>
+        <v>2619.62</v>
       </c>
       <c r="R5" t="n">
-        <v>2202.33</v>
+        <v>1718.45</v>
       </c>
       <c r="S5" t="n">
         <v>817.29</v>
@@ -877,7 +857,7 @@
         <v>1318.03</v>
       </c>
       <c r="W5" t="n">
-        <v>48386.67</v>
+        <v>38359.44</v>
       </c>
       <c r="X5" t="n">
         <v>166.78</v>
@@ -889,9 +869,7 @@
       <c r="AA5" t="n">
         <v>367.08</v>
       </c>
-      <c r="AB5" t="n">
-        <v>133.48</v>
-      </c>
+      <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="n">
         <v>333.7</v>
       </c>
@@ -900,7 +878,7 @@
       </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>333.59</v>
+        <v>150.01</v>
       </c>
     </row>
     <row r="6">
@@ -910,87 +888,85 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="C6" t="n">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>15.93</v>
+        <v>20.81</v>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>9.359999999999999</v>
+        <v>12.55</v>
       </c>
       <c r="J6" t="n">
-        <v>9.359999999999999</v>
+        <v>12.55</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>31.08</v>
       </c>
       <c r="M6" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
       <c r="N6" t="n">
-        <v>11.88</v>
+        <v>15.76</v>
       </c>
       <c r="O6" t="n">
-        <v>0.62</v>
+        <v>0.42</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="S6" t="n">
-        <v>0.32</v>
+        <v>0.46</v>
       </c>
       <c r="T6" t="n">
-        <v>0.19</v>
+        <v>0.27</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>0.52</v>
+        <v>0.74</v>
       </c>
       <c r="W6" t="n">
-        <v>19.08</v>
+        <v>21.43</v>
       </c>
       <c r="X6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0.21</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.84</v>
+        <v>1.19</v>
       </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -1003,48 +979,48 @@
         <v>383.72</v>
       </c>
       <c r="C7" t="n">
-        <v>288.54</v>
+        <v>295.11</v>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>239.05</v>
+        <v>240.41</v>
       </c>
       <c r="F7" t="n">
         <v>302.87</v>
       </c>
       <c r="G7" t="n">
-        <v>444.52</v>
+        <v>483.85</v>
       </c>
       <c r="H7" t="n">
         <v>273.34</v>
       </c>
       <c r="I7" t="n">
-        <v>252.64</v>
+        <v>252.39</v>
       </c>
       <c r="J7" t="n">
-        <v>252.64</v>
+        <v>252.39</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>260.59</v>
       </c>
       <c r="M7" t="n">
-        <v>298.23</v>
+        <v>305.88</v>
       </c>
       <c r="N7" t="n">
-        <v>255.41</v>
+        <v>254.23</v>
       </c>
       <c r="O7" t="n">
-        <v>224.04</v>
+        <v>187.67</v>
       </c>
       <c r="P7" t="n">
-        <v>236.36</v>
+        <v>180.19</v>
       </c>
       <c r="Q7" t="n">
-        <v>481.48</v>
+        <v>523.92</v>
       </c>
       <c r="R7" t="n">
-        <v>314.62</v>
+        <v>286.41</v>
       </c>
       <c r="S7" t="n">
         <v>204.32</v>
@@ -1057,7 +1033,7 @@
         <v>439.34</v>
       </c>
       <c r="W7" t="n">
-        <v>302.42</v>
+        <v>286.26</v>
       </c>
       <c r="X7" t="n">
         <v>166.78</v>
@@ -1069,9 +1045,7 @@
       <c r="AA7" t="n">
         <v>183.54</v>
       </c>
-      <c r="AB7" t="n">
-        <v>133.48</v>
-      </c>
+      <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="n">
         <v>166.85</v>
       </c>
@@ -1080,7 +1054,7 @@
       </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>166.8</v>
+        <v>150.01</v>
       </c>
     </row>
     <row r="8">
@@ -1159,9 +1133,7 @@
       <c r="AA8" t="n">
         <v>233.63</v>
       </c>
-      <c r="AB8" t="n">
-        <v>133.48</v>
-      </c>
+      <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="n">
         <v>217.08</v>
       </c>
@@ -1241,74 +1213,6 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
